--- a/Startgebühren 2018-06-03.xlsx
+++ b/Startgebühren 2018-06-03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\RegattaManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A4BCAB-EC52-4C75-83F4-14B961053848}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF818AC-71FE-492D-A08A-CC1DF536C25F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="2" activeTab="18" xr2:uid="{B7074FDB-2972-4558-AB76-8FC8E8D0AE1F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{B7074FDB-2972-4558-AB76-8FC8E8D0AE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="BWD" sheetId="1" r:id="rId1"/>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CF7052-DFCE-4248-B775-0161D94ECDA1}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
@@ -5572,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B033506-4674-435D-B3C4-0D91DF39C073}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
